--- a/Propuesta/Documento/diagrams.xlsx
+++ b/Propuesta/Documento/diagrams.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Documents\-SEMESTRES\201820\RedshiftDocument\Documento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Documents\-SEMESTRES\201820\RedShiftML_\Propuesta\Documento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676DFB55-A8C8-4784-A488-07833005B0DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DCEAE5-97A4-4C5F-8C94-04373BD2D2F2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7620" activeTab="1" xr2:uid="{A11CEB9D-AE6F-4109-A805-19477C7118B0}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>t</t>
   </si>
@@ -149,16 +150,25 @@
   <si>
     <t>EVALUATION (20)</t>
   </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +178,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -360,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -380,58 +397,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -458,14 +454,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2974,6 +3009,1456 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDF600F-EDB1-4C73-8F0E-2A02FD4217FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9839325" y="2047875"/>
+          <a:ext cx="771525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector recto de flecha 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C983C4-BFE6-4ED5-8205-6676579EAE64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11382375" y="2352675"/>
+          <a:ext cx="9525" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector recto de flecha 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A6E385-2460-47A9-9C30-15C64389C81F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12134850" y="2009775"/>
+          <a:ext cx="771525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector recto de flecha 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7568A6-76EA-4F60-9CE6-16B79300E9D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12144375" y="3219450"/>
+          <a:ext cx="771525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19055</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector: angular 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B18382-FC68-493E-8A29-BBBB691A1010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11839579" y="2324103"/>
+          <a:ext cx="1047747" cy="438146"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99091"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector: angular 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448CE6BD-C3C1-4C26-A5D8-7F85CEA7DF28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9744076" y="2390776"/>
+          <a:ext cx="1181098" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100807"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="332527" cy="311496"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="CuadroTexto 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9BAE5E-A066-4246-8CB6-E28B43C31215}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12620625" y="3352800"/>
+              <a:ext cx="332527" cy="311496"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̂"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1400" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒚</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="CuadroTexto 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9BAE5E-A066-4246-8CB6-E28B43C31215}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12620625" y="3352800"/>
+              <a:ext cx="332527" cy="311496"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒚</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̂</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="332527" cy="311496"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="CuadroTexto 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1F7576-A33B-4E70-B583-5C156D5CE904}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12690475" y="2089150"/>
+              <a:ext cx="332527" cy="311496"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1400" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒚</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="1400" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="CuadroTexto 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1F7576-A33B-4E70-B583-5C156D5CE904}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12690475" y="2089150"/>
+              <a:ext cx="332527" cy="311496"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒚</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="1400" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="328808" cy="311496"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="CuadroTexto 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21245D25-2129-4D09-88A1-04E12E46B4CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9848850" y="1752600"/>
+              <a:ext cx="328808" cy="311496"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1400" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒙</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="1400" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="CuadroTexto 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21245D25-2129-4D09-88A1-04E12E46B4CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9848850" y="1752600"/>
+              <a:ext cx="328808" cy="311496"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1400" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒙</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="1400" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>416720</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1869282" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB21D31E-27B3-49BE-9779-A178666A4EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11025189" y="5083968"/>
+          <a:ext cx="1869282" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> analysis, feature selection and preprocessing</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>426246</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>21431</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1869282" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="CuadroTexto 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E2FEA4-6E89-4533-8C42-87585DFDA1AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11034715" y="5867400"/>
+          <a:ext cx="1869282" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Computational parameter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> selection: prallelization, memory and dataset size</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>435771</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1869282" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="CuadroTexto 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37053FF4-2423-4DF8-8EE8-CA6656F9B8B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11044240" y="6865144"/>
+          <a:ext cx="1869282" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Model training: parameter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> tunning, grid-search and cross validation.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>433390</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>16668</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1869282" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="CuadroTexto 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1839689-2E3D-48E0-8B17-65EB974A0285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11041859" y="7815262"/>
+          <a:ext cx="1869282" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Model Testing,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> comparison and evaluation.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>431009</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1869282" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="CuadroTexto 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D97B7F9-1D0E-4F48-B29D-16D80489DD8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11039478" y="8515349"/>
+          <a:ext cx="1869282" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Model selection </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>589361</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>55785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598887</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>21431</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Conector recto de flecha 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCE5DCF-41BA-435B-B56D-F64A55B4A5EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11959830" y="5520754"/>
+          <a:ext cx="9526" cy="346646"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598887</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608412</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Conector recto de flecha 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B9B564-0085-4CE8-B765-BF51DE540F1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11969356" y="6476413"/>
+          <a:ext cx="9525" cy="388731"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>606031</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>68469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608412</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>16668</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector recto de flecha 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4142FF2-77DC-426A-8B59-A4BC0A69D0EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11976500" y="7474157"/>
+          <a:ext cx="2381" cy="341105"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>603650</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>60548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>606031</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Conector recto de flecha 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBB1BD8-3646-4CCF-BA93-9515CFFDC032}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11974119" y="8252048"/>
+          <a:ext cx="2381" cy="263301"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>756046</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>32655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>433390</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Conector recto 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB64B84A-3841-4C38-8F22-11F5EC2A5DA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10596562" y="8033655"/>
+          <a:ext cx="439344" cy="3064"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>148829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>41672</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Conector recto 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D478845-F03A-440F-9E11-344E7839EBBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10602516" y="7173517"/>
+          <a:ext cx="0" cy="869155"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>435771</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>144963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Conector recto de flecha 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B96DC414-A790-4671-844F-C85F031F87D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10602516" y="7167562"/>
+          <a:ext cx="435771" cy="2089"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6311,10 +7796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C634F298-CC3F-49FB-B997-1384BAF7BCF0}">
-  <dimension ref="B5:L43"/>
+  <dimension ref="B5:P43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6324,8 +7809,8 @@
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="33" t="s">
         <v>25</v>
       </c>
@@ -6333,155 +7818,191 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="34" t="s">
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="O10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="35"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="53"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="37"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="47" t="s">
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="C12" s="41"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="55"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="39"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E14" s="54"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="56"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="57"/>
     </row>
-    <row r="17" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="34" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O16" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="35"/>
+    </row>
+    <row r="17" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="36"/>
+      <c r="P17" s="37"/>
+    </row>
+    <row r="18" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="53"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="39"/>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E19" s="54"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="54"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
+    <row r="21" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="56"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="57"/>
     </row>
-    <row r="22" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="34" t="s">
+    <row r="22" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E23" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="53"/>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E24" s="54"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
+    <row r="25" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="56"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="57"/>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="I27" s="55" t="s">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="I27" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="57" t="s">
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="57"/>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="59"/>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="I30" s="55" t="s">
+    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="I30" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="55"/>
-      <c r="K30" s="56" t="s">
+      <c r="J30" s="58"/>
+      <c r="K30" s="60" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="56"/>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="60"/>
     </row>
-    <row r="32" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="52"/>
+      <c r="F33" s="45"/>
     </row>
     <row r="34" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="53"/>
-      <c r="F34" s="54"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="47"/>
     </row>
     <row r="36" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="36"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="37"/>
-      <c r="F38" s="39"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
     </row>
     <row r="39" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="40"/>
-      <c r="F39" s="42"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
     </row>
     <row r="41" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="44"/>
+      <c r="F42" s="49"/>
     </row>
     <row r="43" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="45"/>
-      <c r="F43" s="46"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="O10:P12"/>
+    <mergeCell ref="O16:P18"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="E37:F39"/>
+    <mergeCell ref="L10:M12"/>
     <mergeCell ref="I27:K28"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="I30:J31"/>
@@ -6489,10 +8010,6 @@
     <mergeCell ref="E11:G15"/>
     <mergeCell ref="E18:G21"/>
     <mergeCell ref="E23:G25"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="E37:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
